--- a/Start_GDELT_Data/data1.xlsx
+++ b/Start_GDELT_Data/data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamel\Dropbox\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamel\Documents\GitHub\EconMacroBlog\Start_GDELT_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277B3DAC-172D-4E27-A317-5D31F9AAF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACCAB7-999B-4778-BFA1-FA590F8FB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2024,12 +2024,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2044,8 +2050,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,10 +2390,10 @@
   <dimension ref="A1:BG254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G239" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="BE227" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A269" sqref="A269"/>
+      <selection pane="bottomRight" activeCell="AF242" sqref="AF242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45582,182 +45589,182 @@
         <v>655</v>
       </c>
     </row>
-    <row r="242" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="242" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>580017328</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>20160917</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>201609</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="1">
         <v>2016</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="1">
         <v>2016.7040999999999</v>
       </c>
-      <c r="G242" t="s">
-        <v>311</v>
-      </c>
-      <c r="H242" t="s">
+      <c r="G242" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H242" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I242" t="s">
-        <v>311</v>
-      </c>
-      <c r="J242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>327</v>
-      </c>
-      <c r="R242" t="s">
+      <c r="I242" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R242" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="S242" t="s">
-        <v>327</v>
-      </c>
-      <c r="T242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA242">
-        <v>1</v>
-      </c>
-      <c r="AB242" t="s">
+      <c r="S242" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="T242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB242" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AC242" t="s">
+      <c r="AC242" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AD242" t="s">
+      <c r="AD242" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE242">
+      <c r="AE242" s="1">
         <v>4</v>
       </c>
-      <c r="AF242">
+      <c r="AF242" s="1">
         <v>-9.5</v>
       </c>
-      <c r="AG242">
+      <c r="AG242" s="1">
         <v>12</v>
       </c>
-      <c r="AH242">
-        <v>1</v>
-      </c>
-      <c r="AI242">
+      <c r="AH242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI242" s="1">
         <v>12</v>
       </c>
-      <c r="AJ242">
+      <c r="AJ242" s="1">
         <v>-3.1872509960159401</v>
       </c>
-      <c r="AK242">
+      <c r="AK242" s="1">
         <v>3</v>
       </c>
-      <c r="AL242" t="s">
+      <c r="AL242" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AM242" t="s">
+      <c r="AM242" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AN242" t="s">
+      <c r="AN242" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AO242">
+      <c r="AO242" s="1">
         <v>40.963999999999999</v>
       </c>
-      <c r="AP242">
+      <c r="AP242" s="1">
         <v>-80.231499999999997</v>
       </c>
-      <c r="AQ242">
+      <c r="AQ242" s="1">
         <v>1184421</v>
       </c>
-      <c r="AR242">
+      <c r="AR242" s="1">
         <v>3</v>
       </c>
-      <c r="AS242" t="s">
+      <c r="AS242" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AT242" t="s">
+      <c r="AT242" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AU242" t="s">
+      <c r="AU242" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AV242">
+      <c r="AV242" s="1">
         <v>40.963999999999999</v>
       </c>
-      <c r="AW242">
+      <c r="AW242" s="1">
         <v>-80.231499999999997</v>
       </c>
-      <c r="AX242">
+      <c r="AX242" s="1">
         <v>1184421</v>
       </c>
-      <c r="AY242">
+      <c r="AY242" s="1">
         <v>3</v>
       </c>
-      <c r="AZ242" t="s">
+      <c r="AZ242" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="BA242" t="s">
+      <c r="BA242" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BB242" t="s">
+      <c r="BB242" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="BC242">
+      <c r="BC242" s="1">
         <v>40.963999999999999</v>
       </c>
-      <c r="BD242">
+      <c r="BD242" s="1">
         <v>-80.231499999999997</v>
       </c>
-      <c r="BE242">
+      <c r="BE242" s="1">
         <v>1184421</v>
       </c>
-      <c r="BF242">
+      <c r="BF242" s="1">
         <v>20160917</v>
       </c>
-      <c r="BG242" t="s">
+      <c r="BG242" s="1" t="s">
         <v>656</v>
       </c>
     </row>
